--- a/Execucoes Gerais/novo_final_GraficoFinal.xlsx
+++ b/Execucoes Gerais/novo_final_GraficoFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13335" windowHeight="12360" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27795" windowHeight="12540" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
   <si>
     <t>NFE</t>
   </si>
@@ -78,10 +78,7 @@
     <t>Função: beale</t>
   </si>
   <si>
-    <t>Execution Time: 876361 ms</t>
-  </si>
-  <si>
-    <t>Execution Time: 885 s</t>
+    <t>Execution Time: 836.244 s</t>
   </si>
 </sst>
 </file>
@@ -111,32 +108,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,17 +138,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,64 +170,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -247,9 +183,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,19 +267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,25 +285,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +321,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,37 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,43 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +459,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,30 +474,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -538,15 +511,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,153 +519,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8659,118 +8656,118 @@
                   <c:v>305.057855424204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.10950311067598</c:v>
+                  <c:v>13.5700616627058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.31616823246244</c:v>
+                  <c:v>3.45029013480566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.00535498334747</c:v>
+                  <c:v>1.12711551999646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.639724697799616</c:v>
+                  <c:v>0.721524224492567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.498444459028681</c:v>
+                  <c:v>0.535215383354538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.397942165902441</c:v>
+                  <c:v>0.411085761782585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.317302323084663</c:v>
+                  <c:v>0.313853120460212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.270367458321731</c:v>
+                  <c:v>0.29319664903464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.252222544523433</c:v>
+                  <c:v>0.286744777246083</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.251250905180365</c:v>
+                  <c:v>0.27846492896331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.226461466451395</c:v>
+                  <c:v>0.230479604552828</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.217265198668445</c:v>
+                  <c:v>0.229875761765602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.191947775611391</c:v>
+                  <c:v>0.16808071387003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.167999586016298</c:v>
+                  <c:v>0.152523388321718</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.155213870300931</c:v>
+                  <c:v>0.141345946644242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.141873919452002</c:v>
+                  <c:v>0.121149574725815</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.111665823693972</c:v>
+                  <c:v>0.120287396156082</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0891901054773438</c:v>
+                  <c:v>0.0983117239160104</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.067638704363213</c:v>
+                  <c:v>0.0831396423621962</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0503174346679988</c:v>
+                  <c:v>0.0802521914046277</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0500114881200326</c:v>
+                  <c:v>0.0316350582882422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0500114881200326</c:v>
+                  <c:v>0.0261432540971638</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0373960397710102</c:v>
+                  <c:v>0.0216647797509633</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0326311494614572</c:v>
+                  <c:v>0.0199583477543143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0321011453025835</c:v>
+                  <c:v>0.00693970977580456</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0315411101048907</c:v>
+                  <c:v>0.00167798847600662</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0314379010027442</c:v>
+                  <c:v>0.00144278374828616</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0314095162289778</c:v>
+                  <c:v>0.00133943607889236</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.031404864852457</c:v>
+                  <c:v>0.00113227962360028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0312187723135097</c:v>
+                  <c:v>0.001110239424735</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0312088099266769</c:v>
+                  <c:v>0.000907888312920072</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.031199554059842</c:v>
+                  <c:v>0.00087419602532201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0311942289692211</c:v>
+                  <c:v>0.000866975435141879</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0311835282089746</c:v>
+                  <c:v>0.000861669978364346</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0311835282089746</c:v>
+                  <c:v>0.000856954944027427</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0311808693304045</c:v>
+                  <c:v>0.000856816905842284</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0311722180684266</c:v>
+                  <c:v>0.000853718599917394</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0311705085911164</c:v>
+                  <c:v>0.000850063673327897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9258,7 +9255,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>5639.1757418471</c:v>
+                  <c:v>305.057855424204</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00E+00">
                   <c:v>21.3375697147929</c:v>
@@ -9553,7 +9550,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>856.279791833925</c:v>
+                  <c:v>305.057855424204</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>299.947513375601</c:v>
@@ -16089,7 +16086,7 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -16924,7 +16921,7 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D40"/>
     </sheetView>
   </sheetViews>
@@ -18594,7 +18591,7 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D40"/>
     </sheetView>
   </sheetViews>
@@ -19429,8 +19426,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -19465,11 +19462,11 @@
       <c r="C2">
         <v>305.057855424204</v>
       </c>
-      <c r="D2" s="1">
-        <v>5639.1757418471</v>
+      <c r="D2">
+        <v>305.057855424204</v>
       </c>
       <c r="E2">
-        <v>856.279791833925</v>
+        <v>305.057855424204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19477,7 +19474,7 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>8.10950311067598</v>
+        <v>13.5700616627058</v>
       </c>
       <c r="C3">
         <v>5.90817432055549</v>
@@ -19494,7 +19491,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>3.31616823246244</v>
+        <v>3.45029013480566</v>
       </c>
       <c r="C4">
         <v>2.8953144380749</v>
@@ -19511,7 +19508,7 @@
         <v>500</v>
       </c>
       <c r="B5">
-        <v>1.00535498334747</v>
+        <v>1.12711551999646</v>
       </c>
       <c r="C5">
         <v>1.3107900426288</v>
@@ -19528,7 +19525,7 @@
         <v>1000</v>
       </c>
       <c r="B6">
-        <v>0.639724697799616</v>
+        <v>0.721524224492567</v>
       </c>
       <c r="C6">
         <v>0.955291301230386</v>
@@ -19545,7 +19542,7 @@
         <v>1500</v>
       </c>
       <c r="B7">
-        <v>0.498444459028681</v>
+        <v>0.535215383354538</v>
       </c>
       <c r="C7">
         <v>0.682054289836139</v>
@@ -19562,7 +19559,7 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>0.397942165902441</v>
+        <v>0.411085761782585</v>
       </c>
       <c r="C8">
         <v>0.409027494096282</v>
@@ -19579,7 +19576,7 @@
         <v>2500</v>
       </c>
       <c r="B9">
-        <v>0.317302323084663</v>
+        <v>0.313853120460212</v>
       </c>
       <c r="C9">
         <v>0.310526192476167</v>
@@ -19596,7 +19593,7 @@
         <v>3000</v>
       </c>
       <c r="B10">
-        <v>0.270367458321731</v>
+        <v>0.29319664903464</v>
       </c>
       <c r="C10">
         <v>0.245677787957769</v>
@@ -19613,7 +19610,7 @@
         <v>3500</v>
       </c>
       <c r="B11">
-        <v>0.252222544523433</v>
+        <v>0.286744777246083</v>
       </c>
       <c r="C11">
         <v>0.212467986559926</v>
@@ -19630,7 +19627,7 @@
         <v>4000</v>
       </c>
       <c r="B12">
-        <v>0.251250905180365</v>
+        <v>0.27846492896331</v>
       </c>
       <c r="C12">
         <v>0.2024770292922</v>
@@ -19647,7 +19644,7 @@
         <v>4500</v>
       </c>
       <c r="B13">
-        <v>0.226461466451395</v>
+        <v>0.230479604552828</v>
       </c>
       <c r="C13">
         <v>0.190300702578741</v>
@@ -19664,7 +19661,7 @@
         <v>5000</v>
       </c>
       <c r="B14">
-        <v>0.217265198668445</v>
+        <v>0.229875761765602</v>
       </c>
       <c r="C14">
         <v>0.178843891731527</v>
@@ -19681,7 +19678,7 @@
         <v>6000</v>
       </c>
       <c r="B15">
-        <v>0.191947775611391</v>
+        <v>0.16808071387003</v>
       </c>
       <c r="C15">
         <v>0.134033730776979</v>
@@ -19698,7 +19695,7 @@
         <v>7000</v>
       </c>
       <c r="B16">
-        <v>0.167999586016298</v>
+        <v>0.152523388321718</v>
       </c>
       <c r="C16">
         <v>0.0921780270848691</v>
@@ -19715,7 +19712,7 @@
         <v>8000</v>
       </c>
       <c r="B17">
-        <v>0.155213870300931</v>
+        <v>0.141345946644242</v>
       </c>
       <c r="C17">
         <v>0.0872654364178561</v>
@@ -19732,7 +19729,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.141873919452002</v>
+        <v>0.121149574725815</v>
       </c>
       <c r="C18">
         <v>0.057081292136628</v>
@@ -19749,7 +19746,7 @@
         <v>10000</v>
       </c>
       <c r="B19">
-        <v>0.111665823693972</v>
+        <v>0.120287396156082</v>
       </c>
       <c r="C19">
         <v>0.0430800769945595</v>
@@ -19766,7 +19763,7 @@
         <v>12000</v>
       </c>
       <c r="B20">
-        <v>0.0891901054773438</v>
+        <v>0.0983117239160104</v>
       </c>
       <c r="C20">
         <v>0.0337586816651628</v>
@@ -19783,7 +19780,7 @@
         <v>14000</v>
       </c>
       <c r="B21">
-        <v>0.067638704363213</v>
+        <v>0.0831396423621962</v>
       </c>
       <c r="C21">
         <v>0.0232341435984101</v>
@@ -19800,7 +19797,7 @@
         <v>16000</v>
       </c>
       <c r="B22">
-        <v>0.0503174346679988</v>
+        <v>0.0802521914046277</v>
       </c>
       <c r="C22">
         <v>0.0224698748671735</v>
@@ -19817,7 +19814,7 @@
         <v>18000</v>
       </c>
       <c r="B23">
-        <v>0.0500114881200326</v>
+        <v>0.0316350582882422</v>
       </c>
       <c r="C23">
         <v>0.0072588953491654</v>
@@ -19834,7 +19831,7 @@
         <v>20000</v>
       </c>
       <c r="B24">
-        <v>0.0500114881200326</v>
+        <v>0.0261432540971638</v>
       </c>
       <c r="C24">
         <v>0.00361985133294325</v>
@@ -19851,7 +19848,7 @@
         <v>25000</v>
       </c>
       <c r="B25">
-        <v>0.0373960397710102</v>
+        <v>0.0216647797509633</v>
       </c>
       <c r="C25">
         <v>0.00308635753444473</v>
@@ -19868,7 +19865,7 @@
         <v>30000</v>
       </c>
       <c r="B26">
-        <v>0.0326311494614572</v>
+        <v>0.0199583477543143</v>
       </c>
       <c r="C26">
         <v>0.00234167835071273</v>
@@ -19885,7 +19882,7 @@
         <v>35000</v>
       </c>
       <c r="B27">
-        <v>0.0321011453025835</v>
+        <v>0.00693970977580456</v>
       </c>
       <c r="C27">
         <v>0.00216176615488233</v>
@@ -19902,7 +19899,7 @@
         <v>40000</v>
       </c>
       <c r="B28">
-        <v>0.0315411101048907</v>
+        <v>0.00167798847600662</v>
       </c>
       <c r="C28">
         <v>0.00138528729188791</v>
@@ -19919,7 +19916,7 @@
         <v>45000</v>
       </c>
       <c r="B29">
-        <v>0.0314379010027442</v>
+        <v>0.00144278374828616</v>
       </c>
       <c r="C29" s="3">
         <v>0.00102074749152845</v>
@@ -19936,7 +19933,7 @@
         <v>50000</v>
       </c>
       <c r="B30">
-        <v>0.0314095162289778</v>
+        <v>0.00133943607889236</v>
       </c>
       <c r="C30" s="3">
         <v>0.00091888898405662</v>
@@ -19953,7 +19950,7 @@
         <v>55000</v>
       </c>
       <c r="B31">
-        <v>0.031404864852457</v>
+        <v>0.00113227962360028</v>
       </c>
       <c r="C31" s="3">
         <v>0.000915715610437952</v>
@@ -19970,7 +19967,7 @@
         <v>60000</v>
       </c>
       <c r="B32">
-        <v>0.0312187723135097</v>
+        <v>0.001110239424735</v>
       </c>
       <c r="C32" s="3">
         <v>0.000589229971951763</v>
@@ -19987,7 +19984,7 @@
         <v>65000</v>
       </c>
       <c r="B33">
-        <v>0.0312088099266769</v>
+        <v>0.000907888312920072</v>
       </c>
       <c r="C33" s="3">
         <v>0.00055400130837278</v>
@@ -20004,7 +20001,7 @@
         <v>70000</v>
       </c>
       <c r="B34">
-        <v>0.031199554059842</v>
+        <v>0.00087419602532201</v>
       </c>
       <c r="C34" s="3">
         <v>0.000247450830378222</v>
@@ -20021,7 +20018,7 @@
         <v>75000</v>
       </c>
       <c r="B35">
-        <v>0.0311942289692211</v>
+        <v>0.000866975435141879</v>
       </c>
       <c r="C35" s="3">
         <v>0.000243792989727439</v>
@@ -20038,7 +20035,7 @@
         <v>80000</v>
       </c>
       <c r="B36">
-        <v>0.0311835282089746</v>
+        <v>0.000861669978364346</v>
       </c>
       <c r="C36" s="3">
         <v>0.000243792989727439</v>
@@ -20055,7 +20052,7 @@
         <v>85000</v>
       </c>
       <c r="B37">
-        <v>0.0311835282089746</v>
+        <v>0.000856954944027427</v>
       </c>
       <c r="C37" s="3">
         <v>0.00022510627263082</v>
@@ -20072,7 +20069,7 @@
         <v>90000</v>
       </c>
       <c r="B38">
-        <v>0.0311808693304045</v>
+        <v>0.000856816905842284</v>
       </c>
       <c r="C38" s="3">
         <v>0.000199415652169413</v>
@@ -20089,7 +20086,7 @@
         <v>95000</v>
       </c>
       <c r="B39">
-        <v>0.0311722180684266</v>
+        <v>0.000853718599917394</v>
       </c>
       <c r="C39" s="3">
         <v>0.000178144561968978</v>
@@ -20106,7 +20103,7 @@
         <v>100000</v>
       </c>
       <c r="B40">
-        <v>0.0311705085911164</v>
+        <v>0.000850063673327897</v>
       </c>
       <c r="C40" s="3">
         <v>0.000176344557812435</v>
@@ -20172,7 +20169,7 @@
         <v>9</v>
       </c>
       <c r="B63">
-        <v>0.0311705085911164</v>
+        <v>0.000850063673327897</v>
       </c>
       <c r="C63">
         <v>0.000176344557812435</v>
@@ -20206,7 +20203,7 @@
         <v>11</v>
       </c>
       <c r="B65">
-        <v>0.762074142100295</v>
+        <v>0.0152864441624638</v>
       </c>
       <c r="C65">
         <v>0.00127688997769147</v>
@@ -20223,7 +20220,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4">
-        <v>8.91940497079451e-5</v>
+        <v>4.9407270286859e-5</v>
       </c>
       <c r="C66" s="4">
         <v>6.61586283947904e-5</v>
@@ -20240,7 +20237,7 @@
         <v>13</v>
       </c>
       <c r="B67">
-        <v>0.140864366015983</v>
+        <v>0.0030266690914416</v>
       </c>
       <c r="C67">
         <v>0.000284750126024645</v>
@@ -20252,14 +20249,9 @@
         <v>1.14702836560239e-9</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Execucoes Gerais/novo_final_GraficoFinal.xlsx
+++ b/Execucoes Gerais/novo_final_GraficoFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12540" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>GEOreal2_P_DS</t>
   </si>
   <si>
-    <t>AGEO2real2_P_AA_p3</t>
+    <t>AGEO2real2_AA3</t>
   </si>
   <si>
     <t>============================================================================</t>
@@ -86,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,14 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -124,7 +116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,15 +145,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,53 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -251,6 +228,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -261,25 +261,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,103 +309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +333,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +382,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,23 +458,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -516,24 +534,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,118 +557,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,28 +677,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1760,7 +1760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2083,7 +2083,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -2093,8 +2093,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.246141975308642"/>
+              <c:y val="0.913202622608895"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3286,7 +3286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3609,7 +3609,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -3619,7 +3619,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.246141975308642"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -4811,7 +4811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5134,7 +5134,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -5144,7 +5144,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.246141975308642"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -6335,7 +6335,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6658,7 +6658,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -6668,7 +6668,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.253086419753086"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -7860,7 +7860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8183,7 +8183,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -8193,7 +8193,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.250771604938272"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -9385,7 +9385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9708,7 +9708,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -9718,8 +9718,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.254012345679012"/>
+              <c:y val="0.924537037037037"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -15250,8 +15250,8 @@
   <sheetPr/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16086,8 +16086,8 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -16921,8 +16921,8 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D40"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -17756,8 +17756,8 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D40"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -18591,8 +18591,8 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D40"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -19426,8 +19426,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
